--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -76,6 +76,12 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,36 +100,36 @@
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -133,19 +139,22 @@
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>share</t>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -628,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.791095890410959</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -696,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -778,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5661375661375662</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8085106382978723</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.559322033898305</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5116279069767442</v>
+        <v>0.5077519379844961</v>
       </c>
       <c r="C10">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.7906976744186046</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,16 +1008,16 @@
         <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,16 +1058,16 @@
         <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.76875</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1087,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1096,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1501340482573726</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1146,45 +1155,69 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L14">
+        <v>81</v>
+      </c>
+      <c r="M14">
+        <v>81</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
         <v>28</v>
       </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="E15">
+        <v>0.11</v>
+      </c>
+      <c r="F15">
+        <v>0.89</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2115</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,21 +1229,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>0.12</v>
+      </c>
+      <c r="F16">
+        <v>0.88</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3066</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.65</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L20">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M20">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5830508474576271</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5690376569037657</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L24">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,32 +1539,58 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="L27">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L28">
         <v>45</v>
       </c>
-      <c r="K27">
-        <v>0.5056179775280899</v>
-      </c>
-      <c r="L27">
+      <c r="M28">
         <v>45</v>
       </c>
-      <c r="M27">
-        <v>45</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>44</v>
       </c>
     </row>
